--- a/biology/Botanique/Baorangia_emileorum/Baorangia_emileorum.xlsx
+++ b/biology/Botanique/Baorangia_emileorum/Baorangia_emileorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet des Emile, Bolet à tubes courts
-Baorangia emileorum, le Bolet des Emile, anciennement Xerocomus emileorum, est une espèce rare de champignon (Fungi) basidiomycète du genre Baorangia dans la famille des Boletaceae. C'est une espèce quasi menacée[1]. Il est caractérisé par son chapeau rouge rosé, son hyménium jaunâtre souvent décurrent, son pied jaunâtre en haut, rougeâtre en bas et sa chair bleuissante au niveau du pied à la coupe.
+Baorangia emileorum, le Bolet des Emile, anciennement Xerocomus emileorum, est une espèce rare de champignon (Fungi) basidiomycète du genre Baorangia dans la famille des Boletaceae. C'est une espèce quasi menacée. Il est caractérisé par son chapeau rouge rosé, son hyménium jaunâtre souvent décurrent, son pied jaunâtre en haut, rougeâtre en bas et sa chair bleuissante au niveau du pied à la coupe.
 </t>
         </is>
       </c>
@@ -512,16 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Baorangia emileorum (Barbier) Vizzini, Simonini &amp; Gelardi, 2015[2].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus emileorum Barbier, 1914[2].
-Synonymes
-Baorangia emileorum a pour synonymes[2] :
-Boletus emileorum Barbier, 1914
-Xerocomus emileorum (Barbier) E.-J. Gilbert, 1931
-Étymologie
-L'épithète spécifique est dédié à Jean-Louis Émile Boudier &amp; Émile Boirac[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Baorangia emileorum (Barbier) Vizzini, Simonini &amp; Gelardi, 2015.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus emileorum Barbier, 1914.
 </t>
         </is>
       </c>
@@ -547,19 +555,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Baorangia emileorum, le Bolet des Emile, sont les suivantes :
-Son chapeau mesure 5-15(20) cm, il est feutré, rouge carmin à rouge vineux, se tachant de noirâtre au frottement, avec la marge généralement ondulée[4].
-L'hyménophore présente des tubes très courts, décurrents, jaunes puis olivâtres. Les pores sont fins, jaunes à jaune orangé, bleuissant vivement au toucher[4].
-Son stipe est jaune, couvert de mouchetures concolores au chapeau plus ou moins sur toute la longueur[4].
-La chair est jaune pâle, bleuissant particulièrement dans le stipe à la coupe[4].
-Caractéristiques microscopiques
-Ses spores mesurent 10-12,5 x 3,5-4,5 µm[4].
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Baorangia emileorum a pour synonymes :
+Boletus emileorum Barbier, 1914
+Xerocomus emileorum (Barbier) E.-J. Gilbert, 1931</t>
         </is>
       </c>
     </row>
@@ -584,12 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, thermophile[3], poussant sous chênes, hêtres ou châtaigniers, souvent cespiteux[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique est dédié à Jean-Louis Émile Boudier &amp; Émile Boirac.
 </t>
         </is>
       </c>
@@ -615,12 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bolet des Emile est une espèce très rare à préserver que l'on doit s'abstenir de consommer, même si elle est comestible après cuisson[5].
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Baorangia emileorum, le Bolet des Emile, sont les suivantes :
+Son chapeau mesure 5-15(20) cm, il est feutré, rouge carmin à rouge vineux, se tachant de noirâtre au frottement, avec la marge généralement ondulée.
+L'hyménophore présente des tubes très courts, décurrents, jaunes puis olivâtres. Les pores sont fins, jaunes à jaune orangé, bleuissant vivement au toucher.
+Son stipe est jaune, couvert de mouchetures concolores au chapeau plus ou moins sur toute la longueur.
+La chair est jaune pâle, bleuissant particulièrement dans le stipe à la coupe.
 </t>
         </is>
       </c>
@@ -646,10 +667,115 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 10-12,5 x 3,5-4,5 µm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baorangia_emileorum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baorangia_emileorum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, thermophile, poussant sous chênes, hêtres ou châtaigniers, souvent cespiteux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Baorangia_emileorum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baorangia_emileorum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet des Emile est une espèce très rare à préserver que l'on doit s'abstenir de consommer, même si elle est comestible après cuisson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Baorangia_emileorum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baorangia_emileorum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Le Bolet royal (Butyriboletus regius), espèce rare à préserver également même s'il est comestible, qui ne bleuit pas et n'a pas les tubes décurrents.
 Le Bolet faux royal (Butyriboletus fuscoroseus), comestible, au chapeau plus pâle et aux tubes non décurrents, bleuit à la coupe seulement au niveau du chapeau.
